--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\CodingProjects\Vue\dtt-house-listing-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5642D098-E51D-4C4C-AAC5-7FEF4A9FC60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE4A99B-4873-40A1-A5F0-88AF04768398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43200" yWindow="1440" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,289 +121,10 @@
     <t xml:space="preserve">Added mobile UI for Single listing page. Added desktop UI for the homepage and the new listing page. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>By implementing the mobile first principle, I started working on the Mobile UI.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Nav tabs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- I've added empty pages and setup the router to navigate to the correct page. 
-- I've added a nav tab bar with router links to the homepage and the about page. The active icon is displayed based on the route and a vIf and else.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-I made a beginning to the layout on the homepage and created the elements in the header like the search and sortbar. These elements do not function yet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Homepage and new listing page on mobile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- The Mobile UI of the homepage and the new listing page is now completed. These pages look more or less like the design and can be navigated to.
-- The list with houses is filled with list item components that currently act as placeholders. This information will later be dynamically filled in. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Background of form page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I decided to add the background image of the new listing form through CSS because I think it is good practice to keep styling elements separate from the HTML. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-File input styling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The file input is hidden because to my knowledge it is not stylable and a label pointing towards the input is styled like the example. It only accepts PNG and JPEG. </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Finished the mobile UI for the homepage and the new listing page.</t>
   </si>
   <si>
     <t>User story 1: navigation. Starting Mobile UI. Nav tabs and header on the homepage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Single listing page on mobile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>The detail page of a single listing is now completed for mobile. This completes the mobile UI until more pages are added.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Started on desktop UI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Using media queries I created some parts of the desktop UI from a viewwidth of 768px. Although this is a tablet width point, I thought the elements like the searchbar and sortbar looked better this way. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Desktop UI completed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">When creating the desktop UI, I ran into some issues with the styling of the mobile UI. So I had to refactor some code a bit and add some containers.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Mobile back button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-I made the back button for mobile into a reusable component. The component accepts a color as prop and displays the correct icon based on this color.  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Displaying the listings
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The listings are now shown on the main page. It works as following: 
-- A listings store is setup when the user first loads the homepage.
-- Then a fetch function is called and all the listings are saved as an array in the listings store.
-- The array with listings is looped over in a list and displays a preview of every listing with a thumbnail and a few details.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Detailed view of listing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Every item in the list acts as a link and pushed to the details page of a single listing by pushing the ID of the listing to url as a parameter.
-- When arriving on the detail page the ID in the URL is read and a composable fetches the selected listing with this ID.
-- The fetched listing is saved in the selected listing store so it can easily be edited.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Input component
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>I've created reusable input components. They take in label, a vmodel and attributes like what input type it is as props. When it unspecified it will be a text input because that is the default. There is also a place to display error messages if necessary.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -460,210 +181,6 @@
         <rFont val="Open Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Delete listing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">It is now possible to delete a listing from the details page. 
-- When a user wants to delete a listing a modal will open. 
-- When the user clicks on delete, the modal will emit a delete event. 
-- The delete event will call the delete listing composable with the ID of the selected listing.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Edit listing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- The edit listing form is linked to the selected listing store with vmodels. This way all the information will be filled in when a user enters the page.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">New listing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- The new listing form is linked to the new listing store with vmodels. 
-- When the user submits the form, an ID is returned from the createListing composable.
-- This ID is pushed to the router as a parameter and the newly created listing page will be displayed. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Images are not uploaded yet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Delete listing from homepage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>It is now possible to delete a listing from the overview on the homepage. The listing is deleted from the database and the listings store so the page doesn't have to reload.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Edit listing from homepage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- When the edit icons is clicked on the preview item the fetch single listing composable is called.
-- This updates the selected listing store.
-- Then the ID of the listing is pushed as a parameter to the edit page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Upload image</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-With a newly created listing, it is now possible to upload and reset an image. The file input is now a component
-- The file is saved in the new listing store when a user opens a picture
-- A preview is shown only if there is an image URL, here the image can be reset.
-- When the form is submitted, the create listing composable will first upload the data. This will return an ID that is used to upload the image to the newly submitted listing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Form validation
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Once a user has filled in all the required fields the post button will be enabled. I have achieved this by watching the store and checking if the required inputs have values. 
--  Once a user submits, two inputs will be tested if they provide the right information with specific functions. 
-- If correct, the validation function returns true and the listing will be created. 
-At first I spend a lot of time creating a function that checks for required values after the form is submitted and adds an error message if there is no value. After some time I realised this is not necessary if is is not possible to submit the form before filling in the required fields. 
-At this point all the functionality described in the user stories is available and working. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">My listings
 </t>
     </r>
@@ -703,259 +220,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Transitions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The list items now transition when the list is updated, but only when a user has no preference for reduced motion.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Suspense components</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-When data is fetched, suspense components will be displayed. This looks nicer than everything suddenly rendering on the page. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>About page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-I've added an about page with some text about the fictive DTT Real Estate. </t>
-    </r>
-  </si>
-  <si>
     <t>Favorites functionality.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Favorites</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-It is now possible to add favorites. At first I tried to add a new property isFavorite to the formdata when uploading. But the API never sends it back so that didn’t work. Then I made a similar system to the recently viewed with local storage:
-- I've set up a store that handles the logic of retrieving, adding and deleting from storage.
-- When a favorite is added it will be pushed to local storage if the id is not already present. 
-- The favorites page list loops over the favorites array. 
-- When a single listing is opened, a function is called to check if the listing id is present in local storage. 
-- Based on this a local ref isFavorite is set to true or false. 
-- Based on this the right icon is rendered and the function handleFavorite knows if it needs to delete the listing or add it to favorites. 
--  Listitems also check for this and display a favorite indicator. </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Transitions between list items. Suspense components when waiting for data. About page. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-It is now possible to filter on multiple properties. I set up a computed property that extends the search results computed property. The search functionality is the primary filter. 
-It took me a while to be able to filter for multiple properties because of a type conversion bug and some logic errors. At first a listing had to include all the filters and no other filter could be kept empty. Now through some logic they both evaluate to true when the amount is correct and when the filter is empty. The list on the homepage now loops over this computed property. </t>
-    </r>
-  </si>
-  <si>
     <t>Modal handles delete logic. Modal store instead of emits. Bug fix where a deleted item was still in recently viewed. Form component</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Deletion logic
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>When I was testing some functionality I noticed that one modal was rendered for every list item with the option of deletion or editing. This was because every item rendered its' own modal. This made me think it could be better. The modal now handles the deletion logic and is rendered once when needed. Instead of emiting to a parent, the modal is now opened with its' own store. This store also saves the ID of the to be deleted listing and deletes from recently viewed. The modal now confirms the deletion or shows an error message.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Form component
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">I refactored the form of the new and edit listing page to be one component. The difference between the pages was the refs it was updating in their specified store. Therefore I made a single store instead of a new listing store and a selected listing store. This single listing is now used to create a new listing, edit a new listing and to display a details page. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Filter styling
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">I've added some styling to the filters and added an image to indicate where the filter is for. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Random listing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">When a user clicks this button a random listing will be displayed. First all the ID's are saved in an array, then a random index is created and the listing at the random index in the array will be displayed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Recommended section</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Open Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-When a single listing is shown, the recommendation section displays other listings that have the same amount of bedrooms or bathrooms. This is done with a computed property.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1029,7 +300,740 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-I've cleaned up the code, added comments and worked on the final details of the styling. Everything can also be done by keyboard.</t>
+I've cleaned up the code, added comments and worked on the final details of the styling. All actions can also be done by keyboard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Single listing page on mobile
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>The detail page of a single listing is now completed for mobile. This completes the mobile UI until more pages are added.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Started on desktop UI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Using media queries I created some parts of the desktop UI from a view width of 768px. Although this is a tablet width point, I thought the elements like the searchbar and sortbar looked better this way. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Desktop UI completed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">When creating the desktop UI, I ran into some issues with the styling of the mobile UI. So I had to refactor some code a bit and add some containers. Now the main element will be used as the main container on a page and has a max width of 1100px. This is not only semantically better but also requires less styles.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Mobile back button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+I made the back button for mobile into a reusable component. The component accepts a color as prop and displays the correct icon based on this color.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>By implementing the mobile first principle, I started working on the Mobile UI.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Nav tabs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- I've added empty pages and setup the router to navigate to the correct page. The router loads the pages lazily to improve initial performance. 
+- I've added a nav tab bar with router links to the homepage and the about page. The active icon is displayed based on the route and a v-if and else.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+I made a beginning to the layout on the homepage and created the elements in the header like the search and sortbar. These elements do not function yet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Homepage and new listing page on mobile
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- The Mobile UI of the homepage and the new listing page is now completed. These pages look like the design and can be navigated to.
+- The list with houses is filled with list item components that currently act as placeholders. This information will later be dynamically filled in. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Background of form page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I decided to add the background image of the new listing form through CSS because I think it is good practice to keep styling elements separate from the HTML. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+File input styling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The file input is hidden because to my knowledge it is not stylable and a label pointing towards the input is styled like the example. It only accepts PNG and JPEG. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Displaying the listings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The listings are now shown on the main page. It works as following: 
+- A listings store is setup when the user first loads the homepage.
+- Then a fetch function is called and all the listings are saved as an array in the listings store.
+- The array with listings is looped over in a list and displays a preview of every listing with a thumbnail and a few details.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Detailed view of listing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Every item in the list acts as a link and navigates to the details page by pushing the ID of the listing to the URL as a parameter.  
+- When arriving on the detail page the ID in the URL is read as a prop because I've allowed this in the router and a composable fetches the selected listing with this ID.
+- The fetched listing is saved in the selected listing store so it can easily be edited.
+-The details of the listing are displayed on the page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Input component
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>I've created reusable input components. They take in a label, vmodel and attributes like what input type it is as props. When it unspecified it will be a text input because that is the default. There is also a paragraph tag to display error messages if necessary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Delete listing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It is now possible to delete a listing from the details page. 
+- When a user wants to delete a listing a modal will open. 
+- When the user clicks on delete, the modal will emit a delete event to it's parent form. 
+- The delete event will call the delete listing composable with the ID of the selected listing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edit listing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- The edit listing form is linked to the selected listing store with vmodels. This way all the information will be filled in when a user enters the page.
+- When the user submits the form the edit listing composable is called and the ID is pushed to the router as parameter to open the edited listing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">New listing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- The new listing form is linked to the new listing store with vmodels. 
+- When the user submits the form, an ID is returned from the createListing composable.
+- This ID is pushed to the router as a parameter and the newly created listing page will be displayed. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Images are not uploaded yet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Delete listing from homepage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>It is now possible to delete a listing from the overview on the homepage. The listing is deleted from the database and the listings store so the page doesn't have to reload.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Edit listing from homepage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- When the edit icon is clicked on the preview item the fetch single listing composable is called.
+- This updates the selected listing store.
+- Then the ID of the listing is pushed as a parameter to the edit page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Upload image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+With a newly created listing, it is now possible to upload and reset an image. This file input is now a component.
+- The file is saved in the new listing store when a user opens a picture
+- A preview is shown only if there is an image URL, here the image can be reset.
+- When the form is submitted, the create listing composable will first upload the data. This will return an ID that is used to upload the image to the newly submitted listing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Form validation
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Once a user has filled in all the required fields the post button will be enabled. I have achieved this by watching the store and checking if the required inputs have values. 
+-  Once a user submits, three inputs will be tested if they provide the right information with specific functions. The street and adress will be tested using a regular expression and the year must be over 1901.
+- If correct, the validation function returns true and the listing will be created. 
+- If incorrect, error messages are shown and the form will not be submitted.
+At first I spend a lot of time creating a function that checks for required values after the form is submitted and adds an error message if there is no value. After some time I realised this is not necessary if it is not possible to submit the form before filling in the required fields. 
+At this point all the functionality described in the user stories is available and working. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transitions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The list items now transition when the list is updated, but only when a user has no preference for reduced motion. This has been applied to the modal as well.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Suspense components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+When data is fetched, suspense components will be displayed. This looks better than everything suddenly rendering on the page. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>About page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+I've added an about page with some text about the fictive DTT Real Estate. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Deletion logic
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>When I was testing some functionality I noticed that one modal was rendered for every list item with the option of deletion. This was because every item rendered its' own modal. This made me think it could be done better. 
+The modal now handles the deletion logic and is rendered once when needed. Instead of emiting to a parent, the modal is now opened with its' own store. This store also saves the ID of the to be deleted listing and deletes from recently viewed. The modal now confirms the deletion or shows an error message.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Form component
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">I refactored the form of the new and edit listing page to be one component. The difference between the pages was the refs it was updating in their specified store. Therefore I made a single store instead of a new listing store and a selected listing store. This single listing is now used to create a new listing, edit a new listing and to display a details page. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Favorites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+It is now possible to add favorites. At first I tried to add a new property isFavorite to the formdata when uploading. But the API never sends it back so that didn’t work. Then I made a similar system to the recently viewed with local storage:
+- I've set up a store that handles the logic of retrieving, adding and deleting from storage.
+- When a favorite is added it will be pushed to local storage if the id is not already present. Is also updates a local ref of isFavorite.
+- The favorites page list loops over the favorites array. 
+- When a single listing is opened, a function is called to check if the listing id is present in local storage. 
+- Based on this a local ref isFavorite is set to true or false. 
+- Based on this the right icon is rendered and the function handleFavorite knows if it needs to delete or add the listing to favorites. 
+-  List items also check for this and display a favorite indicator. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+It is now possible to filter on bedrooms, bathrooms and size. I created a computed property in the filteredListings store that extends the matching  search results computed property. The search functionality is the primary filter. 
+It took me a while to be able to filter for multiple properties because of a type conversion bug and some logic errors. At first a listing had to include all the filters and no other filter could be kept empty. Now through some logic they both evaluate to true when the amount is correct and when the filter is empty. The list on the homepage now loops over this computed property. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Filter styling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">I've added some styling to the filters and added an image to indicate where the filter is for. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Random listing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">When a user clicks this button a random listing will be displayed. First all of the listing ID's are saved in an array, then a random index is created and the listing at the random index in the array will be displayed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Recommended section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+When a single listing is shown, the recommendation section displays other listings that have the same amount of bedrooms or bathrooms. This is done with a computed property.</t>
     </r>
   </si>
 </sst>
@@ -1399,6 +1403,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1410,9 +1417,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1564,10 +1568,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2692,22 +2692,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2738,14 +2738,14 @@
         <v>45125</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="177.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -2754,14 +2754,14 @@
         <v>45125</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="209.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="17">
         <v>3</v>
@@ -2770,7 +2770,7 @@
         <v>45126</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="4"/>
@@ -2785,13 +2785,13 @@
       <c r="C7" s="18">
         <v>45126</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>26</v>
+      <c r="D7" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2802,12 +2802,12 @@
         <v>45127</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="316.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2818,12 +2818,12 @@
         <v>45127</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2834,12 +2834,12 @@
         <v>45128</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="243.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>45129</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="4"/>
@@ -2866,12 +2866,12 @@
         <v>45131</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>45131</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="4"/>
@@ -2898,12 +2898,12 @@
         <v>45132</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="205.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2914,16 +2914,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="141.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B16" s="17">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>45133</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="219.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -2949,15 +2949,15 @@
       <c r="C17" s="18">
         <v>45011</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>40</v>
+      <c r="D17" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="231" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="244.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" s="17">
         <v>3</v>
@@ -2966,14 +2966,14 @@
         <v>45012</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="141.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>45012</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>17</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="20" spans="1:6" ht="184.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B20" s="22">
         <v>3</v>
@@ -3002,14 +3002,14 @@
         <v>45013</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
